--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4637214-E0AF-9F49-8C33-4926369C74A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137790D5-05E8-DA4C-8616-40C01EF1038E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15980" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="233">
   <si>
     <t>《法鼓全集光碟版》HTML版本</t>
   </si>
@@ -730,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,11 +746,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF24292F"/>
-      <name val="Heiti TC Light"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Heiti TC Light"/>
     </font>
     <font>
@@ -784,37 +779,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,52 +1129,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1184,121 +1189,121 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1307,98 +1312,98 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1407,217 +1412,217 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E23" s="5"/>
-      <c r="F23" s="1" t="s">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E23" s="10"/>
+      <c r="F23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E24" s="5"/>
-      <c r="F24" s="1" t="s">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E24" s="10"/>
+      <c r="F24" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E25" s="5"/>
-      <c r="F25" s="1" t="s">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E25" s="10"/>
+      <c r="F25" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E26" s="5"/>
-      <c r="F26" s="1" t="s">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E26" s="10"/>
+      <c r="F26" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1626,311 +1631,311 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="12"/>
+      <c r="I32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E39" s="5"/>
-      <c r="F39" s="1" t="s">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E39" s="10"/>
+      <c r="F39" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E40" s="5"/>
-      <c r="F40" s="1" t="s">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E40" s="10"/>
+      <c r="F40" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E41" s="5"/>
-      <c r="F41" s="1" t="s">
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E41" s="10"/>
+      <c r="F41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E42" s="5"/>
-      <c r="F42" s="1" t="s">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="E42" s="10"/>
+      <c r="F42" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G43" s="7"/>
-      <c r="H43" s="2" t="s">
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H43" s="12"/>
+      <c r="I43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G44" s="7"/>
-      <c r="H44" s="2" t="s">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H44" s="12"/>
+      <c r="I44" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1939,189 +1944,189 @@
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="1" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="10"/>
+      <c r="I49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="10"/>
+      <c r="I52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G53" s="5"/>
-      <c r="H53" s="2" t="s">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H53" s="10"/>
+      <c r="I53" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G54" s="5"/>
-      <c r="H54" s="2" t="s">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H54" s="10"/>
+      <c r="I54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G55" s="5"/>
-      <c r="H55" s="2" t="s">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H55" s="10"/>
+      <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A56" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2130,273 +2135,273 @@
       <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="10"/>
+      <c r="I59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="10"/>
+      <c r="I61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="10"/>
+      <c r="I62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="1" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="10"/>
+      <c r="I64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="1" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="10"/>
+      <c r="I65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E66" s="5"/>
-      <c r="F66" s="1" t="s">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E66" s="10"/>
+      <c r="F66" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="10"/>
+      <c r="I66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E67" s="5"/>
-      <c r="F67" s="1" t="s">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E67" s="10"/>
+      <c r="F67" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="10"/>
+      <c r="I67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E68" s="5"/>
-      <c r="F68" s="1" t="s">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E68" s="10"/>
+      <c r="F68" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="10"/>
+      <c r="I68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E69" s="5"/>
-      <c r="F69" s="1" t="s">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E69" s="10"/>
+      <c r="F69" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="10"/>
+      <c r="I69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G70" s="5"/>
-      <c r="H70" s="2" t="s">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H70" s="10"/>
+      <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G71" s="5"/>
-      <c r="H71" s="2" t="s">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H71" s="10"/>
+      <c r="I71" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A72" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2405,331 +2410,331 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="H72" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="3" t="s">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="A73" s="10"/>
+      <c r="B73" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="1" t="s">
+      <c r="E73" s="10"/>
+      <c r="F73" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="10"/>
+      <c r="I73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="5"/>
-      <c r="B74" s="3"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A74" s="10"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="1" t="s">
+      <c r="E74" s="10"/>
+      <c r="F74" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="10"/>
+      <c r="I74" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="5"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A75" s="10"/>
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="1" t="s">
+      <c r="E75" s="10"/>
+      <c r="F75" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="10"/>
+      <c r="I75" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="5"/>
-      <c r="B76" s="3" t="s">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A76" s="10"/>
+      <c r="B76" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="1" t="s">
+      <c r="E76" s="10"/>
+      <c r="F76" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="10"/>
+      <c r="I76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="3"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A77" s="10"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="1" t="s">
+      <c r="E77" s="10"/>
+      <c r="F77" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="3"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A78" s="10"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="1" t="s">
+      <c r="E78" s="10"/>
+      <c r="F78" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="10"/>
+      <c r="I78" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="3" t="s">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A79" s="10"/>
+      <c r="B79" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="1" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="10"/>
+      <c r="I79" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="3"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A80" s="10"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="1" t="s">
+      <c r="E80" s="10"/>
+      <c r="F80" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="10"/>
+      <c r="I80" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A81" s="10"/>
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="1" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="10"/>
+      <c r="I81" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A82" s="10"/>
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="1" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="10"/>
+      <c r="I82" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E83" s="5"/>
-      <c r="F83" s="1" t="s">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E83" s="10"/>
+      <c r="F83" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="10"/>
+      <c r="I83" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E84" s="5"/>
-      <c r="F84" s="1" t="s">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E84" s="10"/>
+      <c r="F84" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="10"/>
+      <c r="I84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E85" s="5"/>
-      <c r="F85" s="1" t="s">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E85" s="10"/>
+      <c r="F85" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="10"/>
+      <c r="I85" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E86" s="5"/>
-      <c r="F86" s="1" t="s">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E86" s="10"/>
+      <c r="F86" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="10"/>
+      <c r="I86" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E87" s="5"/>
-      <c r="F87" s="1" t="s">
+    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E87" s="10"/>
+      <c r="F87" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E88" s="5"/>
-      <c r="F88" s="1" t="s">
+    <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E88" s="10"/>
+      <c r="F88" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E89" s="5"/>
-      <c r="F89" s="1" t="s">
+    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E89" s="10"/>
+      <c r="F89" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E90" s="5"/>
-      <c r="F90" s="1" t="s">
+    <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E90" s="10"/>
+      <c r="F90" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E91" s="5"/>
-      <c r="F91" s="1" t="s">
+    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E91" s="10"/>
+      <c r="F91" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E92" s="5"/>
-      <c r="F92" s="1" t="s">
+    <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E92" s="10"/>
+      <c r="F92" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E93" s="5"/>
-      <c r="F93" s="1" t="s">
+    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E93" s="10"/>
+      <c r="F93" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E94" s="5"/>
-      <c r="F94" s="1" t="s">
+    <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E94" s="10"/>
+      <c r="F94" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E95" s="5"/>
-      <c r="F95" s="1" t="s">
+    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E95" s="10"/>
+      <c r="F95" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E96" s="5"/>
-      <c r="F96" s="1" t="s">
+    <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E96" s="10"/>
+      <c r="F96" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E97" s="5"/>
-      <c r="F97" s="1" t="s">
+    <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E97" s="10"/>
+      <c r="F97" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A98" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2738,241 +2743,241 @@
       <c r="C98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="5"/>
+    <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A99" s="10"/>
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="1" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="10"/>
+      <c r="I99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A100" s="10"/>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="1" t="s">
+      <c r="E100" s="10"/>
+      <c r="F100" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="10"/>
+      <c r="I100" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="5"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A101" s="10"/>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="1" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="10"/>
+      <c r="I101" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="3" t="s">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A102" s="10"/>
+      <c r="B102" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="1" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="10"/>
+      <c r="I102" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="3"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A103" s="10"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="1" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="10"/>
+      <c r="I103" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="5"/>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A104" s="10"/>
       <c r="B104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="1" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="10"/>
+      <c r="I104" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E105" s="5"/>
-      <c r="F105" s="1" t="s">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E105" s="10"/>
+      <c r="F105" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="10"/>
+      <c r="I105" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E106" s="5"/>
-      <c r="F106" s="1" t="s">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E106" s="10"/>
+      <c r="F106" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="10"/>
+      <c r="I106" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E107" s="5"/>
-      <c r="F107" s="1" t="s">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E107" s="10"/>
+      <c r="F107" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="10"/>
+      <c r="I107" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E108" s="5"/>
-      <c r="F108" s="1" t="s">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E108" s="10"/>
+      <c r="F108" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="10"/>
+      <c r="I108" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E109" s="5"/>
-      <c r="F109" s="1" t="s">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E109" s="10"/>
+      <c r="F109" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="10"/>
+      <c r="I109" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E110" s="5"/>
-      <c r="F110" s="1" t="s">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E110" s="10"/>
+      <c r="F110" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="10"/>
+      <c r="I110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E111" s="5"/>
-      <c r="F111" s="1" t="s">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="E111" s="10"/>
+      <c r="F111" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="10"/>
+      <c r="I111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G112" s="5"/>
-      <c r="H112" s="2" t="s">
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H112" s="10"/>
+      <c r="I112" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G113" s="5"/>
-      <c r="H113" s="2" t="s">
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H113" s="10"/>
+      <c r="I113" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G114" s="5"/>
-      <c r="H114" s="2" t="s">
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H114" s="10"/>
+      <c r="I114" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="5" t="s">
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A115" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -2981,387 +2986,401 @@
       <c r="C115" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="H115" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="5"/>
-      <c r="B116" s="3" t="s">
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A116" s="10"/>
+      <c r="B116" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="1" t="s">
+      <c r="E116" s="10"/>
+      <c r="F116" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="10"/>
+      <c r="I116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="5"/>
-      <c r="B117" s="3"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A117" s="10"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="1" t="s">
+      <c r="E117" s="10"/>
+      <c r="F117" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="10"/>
+      <c r="I117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="5"/>
-      <c r="B118" s="3"/>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A118" s="10"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="1" t="s">
+      <c r="E118" s="10"/>
+      <c r="F118" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="10"/>
+      <c r="I118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="5"/>
-      <c r="B119" s="3"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A119" s="10"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="1" t="s">
+      <c r="E119" s="10"/>
+      <c r="F119" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="10"/>
+      <c r="I119" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="5"/>
-      <c r="B120" s="3"/>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A120" s="10"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="1" t="s">
+      <c r="E120" s="10"/>
+      <c r="F120" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="10"/>
+      <c r="I120" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="5"/>
-      <c r="B121" s="3"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A121" s="10"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="1" t="s">
+      <c r="E121" s="10"/>
+      <c r="F121" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="10"/>
+      <c r="I121" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="5"/>
-      <c r="B122" s="3"/>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A122" s="10"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="1" t="s">
+      <c r="E122" s="10"/>
+      <c r="F122" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="10"/>
+      <c r="I122" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="5"/>
-      <c r="B123" s="3" t="s">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A123" s="10"/>
+      <c r="B123" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="1" t="s">
+      <c r="E123" s="10"/>
+      <c r="F123" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="10"/>
+      <c r="I123" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="5"/>
-      <c r="B124" s="3"/>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="A124" s="10"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="1" t="s">
+      <c r="E124" s="10"/>
+      <c r="F124" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="10"/>
+      <c r="I124" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="5"/>
-      <c r="B125" s="3"/>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A125" s="10"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="1" t="s">
+      <c r="E125" s="10"/>
+      <c r="F125" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="2" t="s">
+      <c r="H125" s="10"/>
+      <c r="I125" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="5"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="A126" s="10"/>
       <c r="B126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="1" t="s">
+      <c r="E126" s="10"/>
+      <c r="F126" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="2" t="s">
+      <c r="H126" s="10"/>
+      <c r="I126" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="5"/>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="10"/>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="5"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="10"/>
       <c r="B128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A129" s="5"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="10"/>
       <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="E130" s="5" t="s">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E130" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E131" s="5"/>
-      <c r="F131" s="1" t="s">
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E131" s="10"/>
+      <c r="F131" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E132" s="5"/>
-      <c r="F132" s="1" t="s">
+      <c r="G131" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E132" s="10"/>
+      <c r="F132" s="14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E133" s="5"/>
-      <c r="F133" s="1" t="s">
+      <c r="G132" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E133" s="10"/>
+      <c r="F133" s="14" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E134" s="5"/>
-      <c r="F134" s="1" t="s">
+      <c r="G133" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E134" s="10"/>
+      <c r="F134" s="14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E135" s="5"/>
-      <c r="F135" s="1" t="s">
+      <c r="G134" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E135" s="10"/>
+      <c r="F135" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E136" s="5"/>
-      <c r="F136" s="1" t="s">
+      <c r="G135" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E136" s="10"/>
+      <c r="F136" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E137" s="5"/>
-      <c r="F137" s="1" t="s">
+      <c r="G136" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E137" s="10"/>
+      <c r="F137" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E138" s="5"/>
-      <c r="F138" s="1" t="s">
+      <c r="G137" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E138" s="10"/>
+      <c r="F138" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E139" s="5"/>
-      <c r="F139" s="1" t="s">
+      <c r="G138" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E139" s="10"/>
+      <c r="F139" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E140" s="5"/>
-      <c r="F140" s="1" t="s">
+      <c r="G139" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E140" s="10"/>
+      <c r="F140" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E141" s="5"/>
-      <c r="F141" s="1" t="s">
+      <c r="G140" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E141" s="10"/>
+      <c r="F141" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E142" s="5"/>
-      <c r="F142" s="1" t="s">
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E142" s="10"/>
+      <c r="F142" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E143" s="5"/>
-      <c r="F143" s="1" t="s">
+    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E143" s="10"/>
+      <c r="F143" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E144" s="5"/>
-      <c r="F144" s="1" t="s">
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E144" s="10"/>
+      <c r="F144" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E145" s="5"/>
-      <c r="F145" s="1" t="s">
+    <row r="145" spans="5:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="E145" s="10"/>
+      <c r="F145" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E146" s="5"/>
-      <c r="F146" s="1" t="s">
+    <row r="146" spans="5:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="E146" s="10"/>
+      <c r="F146" s="14" t="s">
         <v>189</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G45:G55"/>
-    <mergeCell ref="G56:G71"/>
-    <mergeCell ref="G72:G86"/>
-    <mergeCell ref="G98:G114"/>
-    <mergeCell ref="G115:G126"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E27:E42"/>
-    <mergeCell ref="E15:E26"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G15:G25"/>
-    <mergeCell ref="G27:G44"/>
-    <mergeCell ref="E115:E126"/>
-    <mergeCell ref="E130:E146"/>
-    <mergeCell ref="E98:E111"/>
-    <mergeCell ref="E72:E97"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E45:E52"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
@@ -3378,6 +3397,28 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E130:E146"/>
+    <mergeCell ref="E98:E111"/>
+    <mergeCell ref="E72:E97"/>
+    <mergeCell ref="E56:E69"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="H115:H126"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E27:E42"/>
+    <mergeCell ref="E15:E26"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H15:H25"/>
+    <mergeCell ref="H27:H44"/>
+    <mergeCell ref="E115:E126"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="H45:H55"/>
+    <mergeCell ref="H56:H71"/>
+    <mergeCell ref="H72:H86"/>
+    <mergeCell ref="H98:H114"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137790D5-05E8-DA4C-8616-40C01EF1038E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B418DED-C8C5-A449-9155-F258E62AB75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="234">
   <si>
     <t>《法鼓全集光碟版》HTML版本</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>法鼓道風</t>
+  </si>
+  <si>
+    <t>Epub</t>
   </si>
 </sst>
 </file>
@@ -759,12 +762,18 @@
       <name val="Heiti TC Light"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -779,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -799,9 +808,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -811,9 +822,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1159,7 @@
     <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
@@ -1150,28 +1167,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="H2" s="4" t="s">
         <v>191</v>
       </c>
@@ -1180,7 +1200,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1189,121 +1209,134 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1312,98 +1345,105 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1412,139 +1452,151 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="2" t="s">
         <v>114</v>
       </c>
@@ -1554,32 +1606,34 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="2" t="s">
         <v>195</v>
       </c>
@@ -1589,25 +1643,27 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E24" s="10"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E25" s="10"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="2" t="s">
         <v>196</v>
       </c>
@@ -1615,14 +1671,14 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E26" s="10"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
         <v>114</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1631,311 +1687,362 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="14" t="s">
         <v>197</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="2" t="s">
         <v>116</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="2" t="s">
         <v>121</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="2" t="s">
         <v>199</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E39" s="10"/>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E40" s="10"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="12"/>
+      <c r="F40" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E41" s="10"/>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="2" t="s">
         <v>122</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E42" s="10"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H43" s="12"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="2" t="s">
         <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H44" s="12"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1944,153 +2051,167 @@
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="12" t="s">
         <v>127</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="14" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="14" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="14" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="12"/>
       <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="14" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="12"/>
       <c r="I52" s="2" t="s">
         <v>201</v>
       </c>
@@ -2099,7 +2220,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H53" s="10"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="2" t="s">
         <v>202</v>
       </c>
@@ -2108,8 +2229,8 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H54" s="10"/>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="12"/>
+      <c r="I54" s="17" t="s">
         <v>123</v>
       </c>
       <c r="J54" s="2"/>
@@ -2117,16 +2238,18 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H55" s="10"/>
+      <c r="H55" s="12"/>
       <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2135,35 +2258,37 @@
       <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="14" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="12"/>
       <c r="I57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2172,18 +2297,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="14" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2192,18 +2317,18 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="14" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="12"/>
       <c r="I59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2212,18 +2337,18 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="14" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="2" t="s">
         <v>63</v>
       </c>
@@ -2232,18 +2357,18 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="14" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="10"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="2" t="s">
         <v>64</v>
       </c>
@@ -2252,18 +2377,18 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="14" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="12"/>
       <c r="I62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2272,18 +2397,18 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="14" t="s">
+      <c r="E63" s="12"/>
+      <c r="F63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="12"/>
       <c r="I63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2292,18 +2417,18 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="14" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="10"/>
+      <c r="H64" s="12"/>
       <c r="I64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2312,18 +2437,18 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2332,11 +2457,11 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E66" s="10"/>
-      <c r="F66" s="14" t="s">
+      <c r="E66" s="12"/>
+      <c r="F66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="12"/>
       <c r="I66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2345,11 +2470,11 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E67" s="10"/>
-      <c r="F67" s="14" t="s">
+      <c r="E67" s="12"/>
+      <c r="F67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="12"/>
       <c r="I67" s="2" t="s">
         <v>130</v>
       </c>
@@ -2358,11 +2483,11 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E68" s="10"/>
-      <c r="F68" s="14" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="2" t="s">
         <v>131</v>
       </c>
@@ -2371,11 +2496,11 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E69" s="10"/>
-      <c r="F69" s="14" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H69" s="10"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="2" t="s">
         <v>132</v>
       </c>
@@ -2384,7 +2509,7 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H70" s="10"/>
+      <c r="H70" s="12"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2395,13 +2520,13 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H71" s="10"/>
+      <c r="H71" s="12"/>
       <c r="I71" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2410,53 +2535,57 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="12" t="s">
         <v>133</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="14" t="s">
+      <c r="E73" s="12"/>
+      <c r="F73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A74" s="10"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="14" t="s">
+      <c r="E74" s="12"/>
+      <c r="F74" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="12"/>
       <c r="I74" s="2" t="s">
         <v>205</v>
       </c>
@@ -2465,56 +2594,60 @@
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A75" s="10"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="14" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="10"/>
+      <c r="H75" s="12"/>
       <c r="I75" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A76" s="10"/>
-      <c r="B76" s="13" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="14" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="H76" s="12"/>
       <c r="I76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="14" t="s">
+      <c r="E77" s="12"/>
+      <c r="F77" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="2" t="s">
         <v>207</v>
       </c>
@@ -2523,54 +2656,58 @@
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="14" t="s">
+      <c r="E78" s="12"/>
+      <c r="F78" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H78" s="10"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="14" t="s">
+      <c r="E79" s="12"/>
+      <c r="F79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="14" t="s">
+      <c r="E80" s="12"/>
+      <c r="F80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="10"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="2" t="s">
         <v>210</v>
       </c>
@@ -2579,18 +2716,18 @@
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="14" t="s">
+      <c r="E81" s="12"/>
+      <c r="F81" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="2" t="s">
         <v>211</v>
       </c>
@@ -2599,18 +2736,18 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A82" s="10"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="14" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="2" t="s">
         <v>212</v>
       </c>
@@ -2619,11 +2756,11 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E83" s="10"/>
-      <c r="F83" s="14" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="12"/>
       <c r="I83" s="2" t="s">
         <v>213</v>
       </c>
@@ -2632,11 +2769,11 @@
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E84" s="10"/>
-      <c r="F84" s="14" t="s">
+      <c r="E84" s="12"/>
+      <c r="F84" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H84" s="10"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="2" t="s">
         <v>214</v>
       </c>
@@ -2645,11 +2782,11 @@
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E85" s="10"/>
-      <c r="F85" s="14" t="s">
+      <c r="E85" s="12"/>
+      <c r="F85" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="2" t="s">
         <v>215</v>
       </c>
@@ -2658,83 +2795,83 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E86" s="10"/>
-      <c r="F86" s="14" t="s">
+      <c r="E86" s="12"/>
+      <c r="F86" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H86" s="10"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E87" s="10"/>
-      <c r="F87" s="14" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E88" s="10"/>
-      <c r="F88" s="14" t="s">
+      <c r="E88" s="12"/>
+      <c r="F88" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E89" s="10"/>
-      <c r="F89" s="14" t="s">
+      <c r="E89" s="12"/>
+      <c r="F89" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E90" s="10"/>
-      <c r="F90" s="14" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E91" s="10"/>
-      <c r="F91" s="14" t="s">
+      <c r="E91" s="12"/>
+      <c r="F91" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E92" s="10"/>
-      <c r="F92" s="14" t="s">
+      <c r="E92" s="12"/>
+      <c r="F92" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E93" s="10"/>
-      <c r="F93" s="14" t="s">
+      <c r="E93" s="12"/>
+      <c r="F93" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E94" s="10"/>
-      <c r="F94" s="14" t="s">
+      <c r="E94" s="12"/>
+      <c r="F94" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E95" s="10"/>
-      <c r="F95" s="14" t="s">
+      <c r="E95" s="12"/>
+      <c r="F95" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E96" s="10"/>
-      <c r="F96" s="14" t="s">
+      <c r="E96" s="12"/>
+      <c r="F96" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E97" s="10"/>
-      <c r="F97" s="14" t="s">
+      <c r="E97" s="12"/>
+      <c r="F97" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2743,106 +2880,121 @@
       <c r="C98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="J98" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="14" t="s">
+      <c r="E99" s="12"/>
+      <c r="F99" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="10"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="J99" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="14" t="s">
+      <c r="E100" s="12"/>
+      <c r="F100" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H100" s="10"/>
+      <c r="H100" s="12"/>
       <c r="I100" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="J100" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A101" s="10"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="14" t="s">
+      <c r="E101" s="12"/>
+      <c r="F101" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H101" s="10"/>
+      <c r="H101" s="12"/>
       <c r="I101" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="J101" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
-      <c r="B102" s="13" t="s">
+      <c r="A102" s="12"/>
+      <c r="B102" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="14" t="s">
+      <c r="E102" s="12"/>
+      <c r="F102" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H102" s="10"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="J102" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A103" s="10"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="14" t="s">
+      <c r="E103" s="12"/>
+      <c r="F103" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="10"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="2" t="s">
         <v>217</v>
       </c>
@@ -2850,18 +3002,18 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="14" t="s">
+      <c r="E104" s="12"/>
+      <c r="F104" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="10"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="2" t="s">
         <v>155</v>
       </c>
@@ -2869,11 +3021,11 @@
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E105" s="10"/>
-      <c r="F105" s="14" t="s">
+      <c r="E105" s="12"/>
+      <c r="F105" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H105" s="10"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="2" t="s">
         <v>156</v>
       </c>
@@ -2881,11 +3033,11 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E106" s="10"/>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="12"/>
+      <c r="F106" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H106" s="10"/>
+      <c r="H106" s="12"/>
       <c r="I106" s="2" t="s">
         <v>158</v>
       </c>
@@ -2893,11 +3045,11 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E107" s="10"/>
-      <c r="F107" s="14" t="s">
+      <c r="E107" s="12"/>
+      <c r="F107" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H107" s="10"/>
+      <c r="H107" s="12"/>
       <c r="I107" s="2" t="s">
         <v>173</v>
       </c>
@@ -2905,11 +3057,11 @@
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E108" s="10"/>
-      <c r="F108" s="14" t="s">
+      <c r="E108" s="12"/>
+      <c r="F108" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H108" s="10"/>
+      <c r="H108" s="12"/>
       <c r="I108" s="2" t="s">
         <v>174</v>
       </c>
@@ -2917,11 +3069,11 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E109" s="10"/>
-      <c r="F109" s="14" t="s">
+      <c r="E109" s="12"/>
+      <c r="F109" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H109" s="10"/>
+      <c r="H109" s="12"/>
       <c r="I109" s="2" t="s">
         <v>175</v>
       </c>
@@ -2929,11 +3081,11 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E110" s="10"/>
-      <c r="F110" s="14" t="s">
+      <c r="E110" s="12"/>
+      <c r="F110" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="12"/>
       <c r="I110" s="2" t="s">
         <v>218</v>
       </c>
@@ -2941,11 +3093,11 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E111" s="10"/>
-      <c r="F111" s="14" t="s">
+      <c r="E111" s="12"/>
+      <c r="F111" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="12"/>
       <c r="I111" s="2" t="s">
         <v>219</v>
       </c>
@@ -2953,7 +3105,7 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H112" s="10"/>
+      <c r="H112" s="12"/>
       <c r="I112" s="2" t="s">
         <v>220</v>
       </c>
@@ -2961,7 +3113,7 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H113" s="10"/>
+      <c r="H113" s="12"/>
       <c r="I113" s="2" t="s">
         <v>221</v>
       </c>
@@ -2969,7 +3121,7 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H114" s="10"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="2" t="s">
         <v>222</v>
       </c>
@@ -2977,7 +3129,7 @@
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -2986,125 +3138,127 @@
       <c r="C115" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="H115" s="12" t="s">
         <v>223</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J115" s="2"/>
+      <c r="J115" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A116" s="10"/>
-      <c r="B116" s="13" t="s">
+      <c r="A116" s="12"/>
+      <c r="B116" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="14" t="s">
+      <c r="E116" s="12"/>
+      <c r="F116" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H116" s="10"/>
+      <c r="H116" s="12"/>
       <c r="I116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J116" s="2"/>
+      <c r="J116" s="18"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A117" s="10"/>
-      <c r="B117" s="13"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="14" t="s">
+      <c r="E117" s="12"/>
+      <c r="F117" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H117" s="10"/>
+      <c r="H117" s="12"/>
       <c r="I117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J117" s="2"/>
+      <c r="J117" s="18"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A118" s="10"/>
-      <c r="B118" s="13"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="14" t="s">
+      <c r="E118" s="12"/>
+      <c r="F118" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H118" s="10"/>
+      <c r="H118" s="12"/>
       <c r="I118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J118" s="2"/>
+      <c r="J118" s="18"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A119" s="10"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="14" t="s">
+      <c r="E119" s="12"/>
+      <c r="F119" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H119" s="10"/>
+      <c r="H119" s="12"/>
       <c r="I119" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J119" s="2"/>
+      <c r="J119" s="18"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A120" s="10"/>
-      <c r="B120" s="13"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="14" t="s">
+      <c r="E120" s="12"/>
+      <c r="F120" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H120" s="10"/>
+      <c r="H120" s="12"/>
       <c r="I120" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J120" s="2"/>
+      <c r="J120" s="18"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A121" s="10"/>
-      <c r="B121" s="13"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="14" t="s">
+      <c r="E121" s="12"/>
+      <c r="F121" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H121" s="10"/>
+      <c r="H121" s="12"/>
       <c r="I121" s="2" t="s">
         <v>230</v>
       </c>
@@ -3113,16 +3267,16 @@
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A122" s="10"/>
-      <c r="B122" s="13"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="14" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="H122" s="12"/>
       <c r="I122" s="2" t="s">
         <v>231</v>
       </c>
@@ -3131,18 +3285,18 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A123" s="10"/>
-      <c r="B123" s="13" t="s">
+      <c r="A123" s="12"/>
+      <c r="B123" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="14" t="s">
+      <c r="E123" s="12"/>
+      <c r="F123" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="2" t="s">
         <v>180</v>
       </c>
@@ -3151,16 +3305,16 @@
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A124" s="10"/>
-      <c r="B124" s="13"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="14" t="s">
+      <c r="E124" s="12"/>
+      <c r="F124" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H124" s="10"/>
+      <c r="H124" s="12"/>
       <c r="I124" s="2" t="s">
         <v>154</v>
       </c>
@@ -3169,16 +3323,16 @@
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A125" s="10"/>
-      <c r="B125" s="13"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="14" t="s">
+      <c r="E125" s="12"/>
+      <c r="F125" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H125" s="10"/>
+      <c r="H125" s="12"/>
       <c r="I125" s="2" t="s">
         <v>157</v>
       </c>
@@ -3187,24 +3341,24 @@
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A126" s="10"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="14" t="s">
+      <c r="E126" s="12"/>
+      <c r="F126" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H126" s="10"/>
+      <c r="H126" s="12"/>
       <c r="I126" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A127" s="10"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3214,7 +3368,7 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="10"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="1" t="s">
         <v>12</v>
       </c>
@@ -3224,7 +3378,7 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="10"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
@@ -3234,10 +3388,10 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G130" s="3" t="s">
@@ -3251,8 +3405,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E131" s="10"/>
-      <c r="F131" s="14" t="s">
+      <c r="E131" s="12"/>
+      <c r="F131" s="10" t="s">
         <v>174</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -3260,8 +3414,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E132" s="10"/>
-      <c r="F132" s="14" t="s">
+      <c r="E132" s="12"/>
+      <c r="F132" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G132" s="3" t="s">
@@ -3269,8 +3423,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E133" s="10"/>
-      <c r="F133" s="14" t="s">
+      <c r="E133" s="12"/>
+      <c r="F133" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G133" s="3" t="s">
@@ -3278,8 +3432,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E134" s="10"/>
-      <c r="F134" s="14" t="s">
+      <c r="E134" s="12"/>
+      <c r="F134" s="10" t="s">
         <v>177</v>
       </c>
       <c r="G134" s="3" t="s">
@@ -3287,8 +3441,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E135" s="10"/>
-      <c r="F135" s="14" t="s">
+      <c r="E135" s="12"/>
+      <c r="F135" s="10" t="s">
         <v>178</v>
       </c>
       <c r="G135" s="3" t="s">
@@ -3296,8 +3450,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E136" s="10"/>
-      <c r="F136" s="14" t="s">
+      <c r="E136" s="12"/>
+      <c r="F136" s="10" t="s">
         <v>179</v>
       </c>
       <c r="G136" s="3" t="s">
@@ -3305,8 +3459,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E137" s="10"/>
-      <c r="F137" s="14" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="10" t="s">
         <v>180</v>
       </c>
       <c r="G137" s="3" t="s">
@@ -3314,8 +3468,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E138" s="10"/>
-      <c r="F138" s="14" t="s">
+      <c r="E138" s="12"/>
+      <c r="F138" s="10" t="s">
         <v>181</v>
       </c>
       <c r="G138" s="3" t="s">
@@ -3323,8 +3477,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E139" s="10"/>
-      <c r="F139" s="14" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G139" s="3" t="s">
@@ -3332,8 +3486,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E140" s="10"/>
-      <c r="F140" s="14" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="10" t="s">
         <v>183</v>
       </c>
       <c r="G140" s="3" t="s">
@@ -3341,38 +3495,38 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E141" s="10"/>
-      <c r="F141" s="14" t="s">
+      <c r="E141" s="12"/>
+      <c r="F141" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E142" s="10"/>
-      <c r="F142" s="14" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E143" s="10"/>
-      <c r="F143" s="14" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E144" s="10"/>
-      <c r="F144" s="14" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="145" spans="5:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="E145" s="10"/>
-      <c r="F145" s="14" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="5:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="E146" s="10"/>
-      <c r="F146" s="14" t="s">
+    <row r="146" spans="5:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="E146" s="12"/>
+      <c r="F146" s="10" t="s">
         <v>189</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -3380,7 +3534,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="H115:H126"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E27:E42"/>
+    <mergeCell ref="E15:E26"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H15:H25"/>
+    <mergeCell ref="H27:H44"/>
+    <mergeCell ref="E115:E126"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="H45:H55"/>
+    <mergeCell ref="H56:H71"/>
+    <mergeCell ref="H72:H86"/>
+    <mergeCell ref="H98:H114"/>
+    <mergeCell ref="E130:E146"/>
+    <mergeCell ref="E98:E111"/>
+    <mergeCell ref="E72:E97"/>
+    <mergeCell ref="E56:E69"/>
+    <mergeCell ref="E45:E52"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
@@ -3397,28 +3574,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E130:E146"/>
-    <mergeCell ref="E98:E111"/>
-    <mergeCell ref="E72:E97"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="H115:H126"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E27:E42"/>
-    <mergeCell ref="E15:E26"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H15:H25"/>
-    <mergeCell ref="H27:H44"/>
-    <mergeCell ref="E115:E126"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="H45:H55"/>
-    <mergeCell ref="H56:H71"/>
-    <mergeCell ref="H72:H86"/>
-    <mergeCell ref="H98:H114"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B418DED-C8C5-A449-9155-F258E62AB75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F37E3-C32C-9941-8BE2-01B391D04BB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="235">
   <si>
     <t>《法鼓全集光碟版》HTML版本</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>Epub</t>
+  </si>
+  <si>
+    <t>Yes - partial</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -3151,7 +3154,7 @@
         <v>224</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F37E3-C32C-9941-8BE2-01B391D04BB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40573B9B-C4F3-034E-A7A7-266A8C1533C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="235">
   <si>
     <t>《法鼓全集光碟版》HTML版本</t>
   </si>
@@ -815,7 +815,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -825,16 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1170,31 +1170,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="H2" s="4" t="s">
         <v>191</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1212,13 +1212,13 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="17" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1231,18 +1231,18 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1253,18 +1253,18 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1275,18 +1275,18 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1297,18 +1297,18 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1319,18 +1319,18 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1348,13 +1348,13 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1367,18 +1367,18 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1389,18 +1389,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1409,44 +1409,44 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1455,13 +1455,13 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="15" t="s">
         <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1473,18 +1473,18 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1496,18 +1496,18 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="2" t="s">
         <v>109</v>
       </c>
@@ -1519,18 +1519,18 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1542,18 +1542,18 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1565,18 +1565,18 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="2" t="s">
         <v>194</v>
       </c>
@@ -1588,18 +1588,18 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="2" t="s">
         <v>114</v>
       </c>
@@ -1609,18 +1609,18 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1632,11 +1632,11 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E23" s="12"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="2" t="s">
         <v>195</v>
       </c>
@@ -1646,11 +1646,11 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E24" s="12"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1662,11 +1662,11 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="2" t="s">
         <v>196</v>
       </c>
@@ -1674,14 +1674,14 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E26" s="12"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="10" t="s">
         <v>114</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1690,13 +1690,13 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>115</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
         <v>197</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -1710,18 +1710,18 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="2" t="s">
         <v>116</v>
       </c>
@@ -1733,18 +1733,18 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="2" t="s">
         <v>117</v>
       </c>
@@ -1756,18 +1756,18 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="2" t="s">
         <v>118</v>
       </c>
@@ -1779,18 +1779,18 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="2" t="s">
         <v>119</v>
       </c>
@@ -1802,18 +1802,18 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="2" t="s">
         <v>120</v>
       </c>
@@ -1825,18 +1825,18 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="2" t="s">
         <v>198</v>
       </c>
@@ -1848,18 +1848,18 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="2" t="s">
         <v>121</v>
       </c>
@@ -1871,18 +1871,18 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,18 +1894,18 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1917,18 +1917,18 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1940,18 +1940,18 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="2" t="s">
         <v>199</v>
       </c>
@@ -1963,11 +1963,11 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E39" s="12"/>
-      <c r="F39" s="16" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="2" t="s">
         <v>125</v>
       </c>
@@ -1979,11 +1979,11 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E40" s="12"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="2" t="s">
         <v>126</v>
       </c>
@@ -1995,11 +1995,11 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E41" s="12"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="2" t="s">
         <v>122</v>
       </c>
@@ -2011,11 +2011,11 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E42" s="12"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H43" s="14"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="2" t="s">
         <v>178</v>
       </c>
@@ -2039,13 +2039,13 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H44" s="14"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2054,13 +2054,13 @@
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="15" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="15" t="s">
         <v>127</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -2071,18 +2071,18 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="2" t="s">
         <v>51</v>
       </c>
@@ -2093,18 +2093,18 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2115,18 +2115,18 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2137,18 +2137,18 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="2" t="s">
         <v>54</v>
       </c>
@@ -2159,18 +2159,18 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
@@ -2181,18 +2181,18 @@
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="2" t="s">
         <v>57</v>
       </c>
@@ -2203,18 +2203,18 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="2" t="s">
         <v>201</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H53" s="12"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="2" t="s">
         <v>202</v>
       </c>
@@ -2232,8 +2232,8 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H54" s="12"/>
-      <c r="I54" s="17" t="s">
+      <c r="H54" s="15"/>
+      <c r="I54" s="12" t="s">
         <v>123</v>
       </c>
       <c r="J54" s="2"/>
@@ -2241,7 +2241,7 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H55" s="12"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2261,13 +2261,13 @@
       <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="15" t="s">
         <v>128</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="15" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -2280,18 +2280,18 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2300,18 +2300,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="12"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2320,18 +2320,18 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2340,18 +2340,18 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="12"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="2" t="s">
         <v>63</v>
       </c>
@@ -2360,18 +2360,18 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="12"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="12"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="2" t="s">
         <v>64</v>
       </c>
@@ -2380,18 +2380,18 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="12"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2400,18 +2400,18 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2420,18 +2420,18 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2440,18 +2440,18 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="12"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2460,11 +2460,11 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E66" s="12"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="12"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2473,11 +2473,11 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E67" s="12"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H67" s="12"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="2" t="s">
         <v>130</v>
       </c>
@@ -2486,11 +2486,11 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E68" s="12"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="12"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="2" t="s">
         <v>131</v>
       </c>
@@ -2499,11 +2499,11 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E69" s="12"/>
+      <c r="E69" s="15"/>
       <c r="F69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="2" t="s">
         <v>132</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H70" s="12"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2523,13 +2523,13 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H71" s="12"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2538,13 +2538,13 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="15" t="s">
         <v>133</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="12" t="s">
+      <c r="H72" s="15" t="s">
         <v>133</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -2557,18 +2557,18 @@
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A73" s="12"/>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="2" t="s">
         <v>204</v>
       </c>
@@ -2579,16 +2579,16 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="2" t="s">
         <v>205</v>
       </c>
@@ -2597,18 +2597,18 @@
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A75" s="12"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="12"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="2" t="s">
         <v>206</v>
       </c>
@@ -2619,18 +2619,18 @@
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="15"/>
+      <c r="B76" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="2" t="s">
         <v>80</v>
       </c>
@@ -2641,34 +2641,36 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="12"/>
+      <c r="E77" s="15"/>
       <c r="F77" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A78" s="12"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="15"/>
       <c r="F78" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="2" t="s">
         <v>208</v>
       </c>
@@ -2679,18 +2681,18 @@
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A79" s="12"/>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="15"/>
       <c r="F79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="2" t="s">
         <v>209</v>
       </c>
@@ -2701,16 +2703,16 @@
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A80" s="12"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="12"/>
+      <c r="E80" s="15"/>
       <c r="F80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="2" t="s">
         <v>210</v>
       </c>
@@ -2719,18 +2721,18 @@
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A81" s="12"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="12"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H81" s="12"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="2" t="s">
         <v>211</v>
       </c>
@@ -2739,18 +2741,18 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A82" s="12"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="12"/>
+      <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H82" s="12"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="2" t="s">
         <v>212</v>
       </c>
@@ -2759,11 +2761,11 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E83" s="12"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="2" t="s">
         <v>213</v>
       </c>
@@ -2772,11 +2774,11 @@
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E84" s="12"/>
+      <c r="E84" s="15"/>
       <c r="F84" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H84" s="12"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="2" t="s">
         <v>214</v>
       </c>
@@ -2785,11 +2787,11 @@
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E85" s="12"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="12"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="2" t="s">
         <v>215</v>
       </c>
@@ -2798,83 +2800,83 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E86" s="12"/>
+      <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H86" s="12"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E87" s="12"/>
+      <c r="E87" s="15"/>
       <c r="F87" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E88" s="12"/>
+      <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E89" s="12"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E90" s="12"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E91" s="12"/>
+      <c r="E91" s="15"/>
       <c r="F91" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E92" s="12"/>
+      <c r="E92" s="15"/>
       <c r="F92" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E93" s="12"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E94" s="12"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E95" s="12"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E96" s="12"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E97" s="12"/>
+      <c r="E97" s="15"/>
       <c r="F97" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2883,13 +2885,13 @@
       <c r="C98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="15" t="s">
         <v>152</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="12" t="s">
+      <c r="H98" s="15" t="s">
         <v>152</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -2900,18 +2902,18 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A99" s="12"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="12"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="15"/>
       <c r="I99" s="2" t="s">
         <v>84</v>
       </c>
@@ -2922,18 +2924,18 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A100" s="12"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="12"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H100" s="12"/>
+      <c r="H100" s="15"/>
       <c r="I100" s="2" t="s">
         <v>85</v>
       </c>
@@ -2944,18 +2946,18 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A101" s="12"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="12"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="2" t="s">
         <v>86</v>
       </c>
@@ -2966,18 +2968,18 @@
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A102" s="12"/>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="15"/>
+      <c r="B102" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="12"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H102" s="12"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="2" t="s">
         <v>87</v>
       </c>
@@ -2988,16 +2990,16 @@
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A103" s="12"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="12"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="12"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="2" t="s">
         <v>217</v>
       </c>
@@ -3005,18 +3007,18 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A104" s="12"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="12"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="12"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="2" t="s">
         <v>155</v>
       </c>
@@ -3024,11 +3026,11 @@
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E105" s="12"/>
+      <c r="E105" s="15"/>
       <c r="F105" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="15"/>
       <c r="I105" s="2" t="s">
         <v>156</v>
       </c>
@@ -3036,11 +3038,11 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E106" s="12"/>
+      <c r="E106" s="15"/>
       <c r="F106" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H106" s="12"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="2" t="s">
         <v>158</v>
       </c>
@@ -3048,11 +3050,11 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E107" s="12"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="2" t="s">
         <v>173</v>
       </c>
@@ -3060,11 +3062,11 @@
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E108" s="12"/>
+      <c r="E108" s="15"/>
       <c r="F108" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="2" t="s">
         <v>174</v>
       </c>
@@ -3072,11 +3074,11 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E109" s="12"/>
+      <c r="E109" s="15"/>
       <c r="F109" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H109" s="12"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="2" t="s">
         <v>175</v>
       </c>
@@ -3084,11 +3086,11 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E110" s="12"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="2" t="s">
         <v>218</v>
       </c>
@@ -3096,11 +3098,11 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E111" s="12"/>
+      <c r="E111" s="15"/>
       <c r="F111" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H111" s="12"/>
+      <c r="H111" s="15"/>
       <c r="I111" s="2" t="s">
         <v>219</v>
       </c>
@@ -3108,7 +3110,7 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H112" s="12"/>
+      <c r="H112" s="15"/>
       <c r="I112" s="2" t="s">
         <v>220</v>
       </c>
@@ -3116,7 +3118,7 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H113" s="12"/>
+      <c r="H113" s="15"/>
       <c r="I113" s="2" t="s">
         <v>221</v>
       </c>
@@ -3124,7 +3126,7 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H114" s="12"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="2" t="s">
         <v>222</v>
       </c>
@@ -3132,7 +3134,7 @@
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3141,127 +3143,127 @@
       <c r="C115" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="H115" s="15" t="s">
         <v>223</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J115" s="18" t="s">
+      <c r="J115" s="14" t="s">
         <v>234</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A116" s="12"/>
-      <c r="B116" s="11" t="s">
+      <c r="A116" s="15"/>
+      <c r="B116" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E116" s="12"/>
+      <c r="E116" s="15"/>
       <c r="F116" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H116" s="12"/>
+      <c r="H116" s="15"/>
       <c r="I116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J116" s="18"/>
+      <c r="J116" s="14"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="12"/>
+      <c r="E117" s="15"/>
       <c r="F117" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H117" s="12"/>
+      <c r="H117" s="15"/>
       <c r="I117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J117" s="18"/>
+      <c r="J117" s="14"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A118" s="12"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="12"/>
+      <c r="E118" s="15"/>
       <c r="F118" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H118" s="12"/>
+      <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J118" s="18"/>
+      <c r="J118" s="14"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A119" s="12"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="12"/>
+      <c r="E119" s="15"/>
       <c r="F119" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H119" s="12"/>
+      <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J119" s="18"/>
+      <c r="J119" s="14"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A120" s="12"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E120" s="12"/>
+      <c r="E120" s="15"/>
       <c r="F120" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J120" s="18"/>
+      <c r="J120" s="14"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A121" s="12"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="12"/>
+      <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="15"/>
       <c r="I121" s="2" t="s">
         <v>230</v>
       </c>
@@ -3270,16 +3272,16 @@
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A122" s="12"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E122" s="12"/>
+      <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="15"/>
       <c r="I122" s="2" t="s">
         <v>231</v>
       </c>
@@ -3288,18 +3290,18 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A123" s="12"/>
-      <c r="B123" s="11" t="s">
+      <c r="A123" s="15"/>
+      <c r="B123" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E123" s="12"/>
+      <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H123" s="12"/>
+      <c r="H123" s="15"/>
       <c r="I123" s="2" t="s">
         <v>180</v>
       </c>
@@ -3308,16 +3310,16 @@
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A124" s="12"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="12"/>
+      <c r="E124" s="15"/>
       <c r="F124" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="15"/>
       <c r="I124" s="2" t="s">
         <v>154</v>
       </c>
@@ -3326,16 +3328,16 @@
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A125" s="12"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="12"/>
+      <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="15"/>
       <c r="I125" s="2" t="s">
         <v>157</v>
       </c>
@@ -3344,24 +3346,24 @@
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A126" s="12"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="12"/>
+      <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H126" s="12"/>
+      <c r="H126" s="15"/>
       <c r="I126" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A127" s="12"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3373,7 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="12"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="1" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3383,7 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="12"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
@@ -3391,7 +3393,7 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F130" s="10" t="s">
@@ -3408,7 +3410,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E131" s="12"/>
+      <c r="E131" s="15"/>
       <c r="F131" s="10" t="s">
         <v>174</v>
       </c>
@@ -3417,7 +3419,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E132" s="12"/>
+      <c r="E132" s="15"/>
       <c r="F132" s="10" t="s">
         <v>175</v>
       </c>
@@ -3426,7 +3428,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E133" s="12"/>
+      <c r="E133" s="15"/>
       <c r="F133" s="10" t="s">
         <v>176</v>
       </c>
@@ -3435,7 +3437,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E134" s="12"/>
+      <c r="E134" s="15"/>
       <c r="F134" s="10" t="s">
         <v>177</v>
       </c>
@@ -3444,7 +3446,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E135" s="12"/>
+      <c r="E135" s="15"/>
       <c r="F135" s="10" t="s">
         <v>178</v>
       </c>
@@ -3453,7 +3455,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E136" s="12"/>
+      <c r="E136" s="15"/>
       <c r="F136" s="10" t="s">
         <v>179</v>
       </c>
@@ -3462,7 +3464,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E137" s="12"/>
+      <c r="E137" s="15"/>
       <c r="F137" s="10" t="s">
         <v>180</v>
       </c>
@@ -3471,7 +3473,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E138" s="12"/>
+      <c r="E138" s="15"/>
       <c r="F138" s="10" t="s">
         <v>181</v>
       </c>
@@ -3480,7 +3482,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E139" s="12"/>
+      <c r="E139" s="15"/>
       <c r="F139" s="10" t="s">
         <v>182</v>
       </c>
@@ -3489,7 +3491,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E140" s="12"/>
+      <c r="E140" s="15"/>
       <c r="F140" s="10" t="s">
         <v>183</v>
       </c>
@@ -3498,37 +3500,37 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E141" s="12"/>
+      <c r="E141" s="15"/>
       <c r="F141" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E142" s="12"/>
+      <c r="E142" s="15"/>
       <c r="F142" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E143" s="12"/>
+      <c r="E143" s="15"/>
       <c r="F143" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E144" s="12"/>
+      <c r="E144" s="15"/>
       <c r="F144" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="145" spans="5:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="E145" s="12"/>
+      <c r="E145" s="15"/>
       <c r="F145" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="E146" s="12"/>
+      <c r="E146" s="15"/>
       <c r="F146" s="10" t="s">
         <v>189</v>
       </c>
@@ -3538,6 +3540,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E56:E69"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="A115:A129"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H72:H86"/>
+    <mergeCell ref="H98:H114"/>
+    <mergeCell ref="E130:E146"/>
+    <mergeCell ref="E98:E111"/>
+    <mergeCell ref="E72:E97"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="J115:J120"/>
     <mergeCell ref="H115:H126"/>
@@ -3554,29 +3579,6 @@
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="H45:H55"/>
     <mergeCell ref="H56:H71"/>
-    <mergeCell ref="H72:H86"/>
-    <mergeCell ref="H98:H114"/>
-    <mergeCell ref="E130:E146"/>
-    <mergeCell ref="E98:E111"/>
-    <mergeCell ref="E72:E97"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="A115:A129"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B76:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40573B9B-C4F3-034E-A7A7-266A8C1533C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E6F80-6D6B-5142-AFA4-B70947DE6475}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -811,7 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -819,14 +818,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -834,7 +838,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1162,7 +1165,7 @@
     <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
@@ -1170,31 +1173,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="H2" s="4" t="s">
         <v>191</v>
       </c>
@@ -1215,10 +1218,10 @@
       <c r="E3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1239,10 +1242,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1261,10 +1264,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1283,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1305,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1327,10 +1330,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="E9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -1375,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="15"/>
@@ -1397,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="15"/>
@@ -1410,25 +1413,25 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1441,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1458,7 +1461,7 @@
       <c r="E15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -1481,7 +1484,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="15"/>
@@ -1504,7 +1507,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>109</v>
       </c>
       <c r="H17" s="15"/>
@@ -1527,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="15"/>
@@ -1550,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="15"/>
@@ -1573,7 +1576,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="15"/>
@@ -1596,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H21" s="15"/>
@@ -1617,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="15"/>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H23" s="15"/>
@@ -1647,7 +1650,7 @@
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E24" s="15"/>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H24" s="15"/>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E25" s="15"/>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H25" s="15"/>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>114</v>
       </c>
       <c r="I26" s="2"/>
@@ -1693,10 +1696,10 @@
       <c r="E27" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="19" t="s">
         <v>197</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -1718,10 +1721,10 @@
         <v>34</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="2" t="s">
         <v>116</v>
       </c>
@@ -1741,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="2" t="s">
         <v>117</v>
       </c>
@@ -1764,10 +1767,10 @@
         <v>36</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="2" t="s">
         <v>118</v>
       </c>
@@ -1787,10 +1790,10 @@
         <v>37</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="2" t="s">
         <v>119</v>
       </c>
@@ -1810,10 +1813,10 @@
         <v>38</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="2" t="s">
         <v>120</v>
       </c>
@@ -1833,10 +1836,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="2" t="s">
         <v>198</v>
       </c>
@@ -1856,10 +1859,10 @@
         <v>40</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="2" t="s">
         <v>121</v>
       </c>
@@ -1879,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1902,10 +1905,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1925,10 +1928,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1948,10 +1951,10 @@
         <v>48</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="2" t="s">
         <v>199</v>
       </c>
@@ -1964,10 +1967,10 @@
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E39" s="15"/>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="2" t="s">
         <v>125</v>
       </c>
@@ -1980,10 +1983,10 @@
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E40" s="15"/>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="2" t="s">
         <v>126</v>
       </c>
@@ -1996,10 +1999,10 @@
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E41" s="15"/>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="2" t="s">
         <v>122</v>
       </c>
@@ -2012,10 +2015,10 @@
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="E42" s="15"/>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2027,7 +2030,7 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H43" s="17"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="2" t="s">
         <v>178</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H44" s="17"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="2" t="s">
         <v>200</v>
       </c>
@@ -2057,7 +2060,7 @@
       <c r="E45" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="15" t="s">
@@ -2079,7 +2082,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H46" s="15"/>
@@ -2101,7 +2104,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H47" s="15"/>
@@ -2123,7 +2126,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="15"/>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="15"/>
@@ -2145,7 +2148,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H49" s="15"/>
@@ -2167,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H50" s="15"/>
@@ -2189,7 +2192,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H51" s="15"/>
@@ -2211,7 +2214,7 @@
         <v>57</v>
       </c>
       <c r="E52" s="15"/>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H52" s="15"/>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H54" s="15"/>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J54" s="2"/>
@@ -2264,7 +2267,7 @@
       <c r="E56" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H56" s="15" t="s">
@@ -2288,7 +2291,7 @@
         <v>60</v>
       </c>
       <c r="E57" s="15"/>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H57" s="15"/>
@@ -2308,7 +2311,7 @@
         <v>61</v>
       </c>
       <c r="E58" s="15"/>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H58" s="15"/>
@@ -2328,7 +2331,7 @@
         <v>62</v>
       </c>
       <c r="E59" s="15"/>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>62</v>
       </c>
       <c r="H59" s="15"/>
@@ -2348,7 +2351,7 @@
         <v>63</v>
       </c>
       <c r="E60" s="15"/>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H60" s="15"/>
@@ -2368,7 +2371,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="15"/>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H61" s="15"/>
@@ -2388,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="E62" s="15"/>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H62" s="15"/>
@@ -2408,7 +2411,7 @@
         <v>66</v>
       </c>
       <c r="E63" s="15"/>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H63" s="15"/>
@@ -2428,7 +2431,7 @@
         <v>67</v>
       </c>
       <c r="E64" s="15"/>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H64" s="15"/>
@@ -2448,7 +2451,7 @@
         <v>68</v>
       </c>
       <c r="E65" s="15"/>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H65" s="15"/>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H66" s="15"/>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H67" s="15"/>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H68" s="15"/>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>132</v>
       </c>
       <c r="H69" s="15"/>
@@ -2541,7 +2544,7 @@
       <c r="E72" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -2558,14 +2561,14 @@
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E73" s="15"/>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H73" s="15"/>
@@ -2580,12 +2583,12 @@
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H74" s="15"/>
@@ -2605,7 +2608,7 @@
         <v>73</v>
       </c>
       <c r="E75" s="15"/>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H75" s="15"/>
@@ -2620,14 +2623,14 @@
     </row>
     <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E76" s="15"/>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>74</v>
       </c>
       <c r="H76" s="15"/>
@@ -2642,12 +2645,12 @@
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H77" s="15"/>
@@ -2662,12 +2665,12 @@
     </row>
     <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="15"/>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H78" s="15"/>
@@ -2682,14 +2685,14 @@
     </row>
     <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E79" s="15"/>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>77</v>
       </c>
       <c r="H79" s="15"/>
@@ -2704,12 +2707,12 @@
     </row>
     <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E80" s="15"/>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="9" t="s">
         <v>78</v>
       </c>
       <c r="H80" s="15"/>
@@ -2729,7 +2732,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="15"/>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>79</v>
       </c>
       <c r="H81" s="15"/>
@@ -2749,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="E82" s="15"/>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="9" t="s">
         <v>135</v>
       </c>
       <c r="H82" s="15"/>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>136</v>
       </c>
       <c r="H83" s="15"/>
@@ -2775,7 +2778,7 @@
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>137</v>
       </c>
       <c r="H84" s="15"/>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>138</v>
       </c>
       <c r="H85" s="15"/>
@@ -2801,7 +2804,7 @@
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>139</v>
       </c>
       <c r="H86" s="15"/>
@@ -2811,67 +2814,67 @@
     </row>
     <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2888,18 +2891,13 @@
       <c r="E98" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
@@ -2910,14 +2908,14 @@
         <v>83</v>
       </c>
       <c r="E99" s="15"/>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J99" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J99" s="13" t="s">
         <v>193</v>
       </c>
       <c r="K99" s="2"/>
@@ -2932,14 +2930,14 @@
         <v>84</v>
       </c>
       <c r="E100" s="15"/>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H100" s="15"/>
       <c r="I100" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J100" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>193</v>
       </c>
       <c r="K100" s="2"/>
@@ -2954,14 +2952,14 @@
         <v>85</v>
       </c>
       <c r="E101" s="15"/>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="9" t="s">
         <v>85</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J101" s="13" t="s">
         <v>193</v>
       </c>
       <c r="K101" s="2"/>
@@ -2969,21 +2967,21 @@
     </row>
     <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J102" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J102" s="13" t="s">
         <v>193</v>
       </c>
       <c r="K102" s="2"/>
@@ -2991,17 +2989,20 @@
     </row>
     <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E103" s="15"/>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="2" t="s">
-        <v>217</v>
+        <v>87</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -3015,275 +3016,279 @@
         <v>88</v>
       </c>
       <c r="E104" s="15"/>
-      <c r="F104" s="10" t="s">
-        <v>88</v>
+      <c r="F104" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J104" s="13"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
-      <c r="F105" s="10" t="s">
-        <v>153</v>
+      <c r="F105" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J105" s="13"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
-      <c r="F106" s="10" t="s">
-        <v>154</v>
+      <c r="F106" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="J106" s="13"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
-      <c r="F107" s="10" t="s">
-        <v>155</v>
+      <c r="F107" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J107" s="13"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
-      <c r="F108" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="H108" s="15"/>
       <c r="I108" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J108" s="13"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
-      <c r="F109" s="10" t="s">
-        <v>157</v>
+      <c r="F109" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="J109" s="13"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
-      <c r="F110" s="10" t="s">
-        <v>158</v>
+      <c r="F110" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="H110" s="15"/>
       <c r="I110" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J110" s="13"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
-      <c r="F111" s="10" t="s">
-        <v>159</v>
+      <c r="F111" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J111" s="13"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+      <c r="F112" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="H112" s="15"/>
       <c r="I112" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J112" s="13"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H113" s="15"/>
       <c r="I113" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="J113" s="13"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="9"/>
       <c r="H114" s="15"/>
       <c r="I114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A115" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>223</v>
-      </c>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H115" s="15"/>
       <c r="I115" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>234</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="J115" s="13"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A116" s="15"/>
-      <c r="B116" s="18" t="s">
-        <v>4</v>
+      <c r="A116" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H116" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="I116" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J116" s="14"/>
+        <v>224</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A117" s="15"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E117" s="15"/>
-      <c r="F117" s="10" t="s">
-        <v>162</v>
+      <c r="F117" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="H117" s="15"/>
       <c r="I117" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J117" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="J117" s="17"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A118" s="15"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E118" s="15"/>
-      <c r="F118" s="10" t="s">
-        <v>163</v>
+      <c r="F118" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J118" s="14"/>
+        <v>226</v>
+      </c>
+      <c r="J118" s="17"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A119" s="15"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E119" s="15"/>
-      <c r="F119" s="10" t="s">
-        <v>164</v>
+      <c r="F119" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J119" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="J119" s="17"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A120" s="15"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E120" s="15"/>
-      <c r="F120" s="10" t="s">
-        <v>165</v>
+      <c r="F120" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J120" s="14"/>
+        <v>228</v>
+      </c>
+      <c r="J120" s="17"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A121" s="15"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E121" s="15"/>
-      <c r="F121" s="10" t="s">
-        <v>166</v>
+      <c r="F121" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J121" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="J121" s="17"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A122" s="15"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E122" s="15"/>
-      <c r="F122" s="10" t="s">
-        <v>167</v>
+      <c r="F122" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -3291,55 +3296,55 @@
     </row>
     <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A123" s="15"/>
-      <c r="B123" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="B123" s="14"/>
       <c r="C123" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E123" s="15"/>
-      <c r="F123" s="10" t="s">
-        <v>168</v>
+      <c r="F123" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="2" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A124" s="15"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E124" s="15"/>
-      <c r="F124" s="10" t="s">
-        <v>169</v>
+      <c r="F124" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A125" s="15"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E125" s="15"/>
-      <c r="F125" s="10" t="s">
-        <v>170</v>
+      <c r="F125" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -3347,99 +3352,108 @@
     </row>
     <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A126" s="15"/>
-      <c r="B126" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B126" s="14"/>
       <c r="C126" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E126" s="15"/>
-      <c r="F126" s="10" t="s">
-        <v>171</v>
+      <c r="F126" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A127" s="15"/>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I127" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E127" s="15"/>
+      <c r="F127" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="15"/>
       <c r="B128" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="15"/>
       <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="15"/>
+      <c r="B130" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E130" s="15" t="s">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E131" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F131" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E131" s="15"/>
-      <c r="F131" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="H131" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
-      <c r="F132" s="10" t="s">
-        <v>175</v>
+      <c r="F132" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
-      <c r="F133" s="10" t="s">
-        <v>176</v>
+      <c r="F133" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
-      <c r="F134" s="10" t="s">
-        <v>177</v>
+      <c r="F134" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>81</v>
@@ -3447,125 +3461,111 @@
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E136" s="15"/>
+      <c r="F136" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
-      <c r="F136" s="10" t="s">
+    <row r="137" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E137" s="15"/>
+      <c r="F137" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
-      <c r="F138" s="10" t="s">
-        <v>181</v>
+      <c r="F138" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
-      <c r="F139" s="10" t="s">
-        <v>182</v>
+      <c r="F139" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E141" s="15"/>
+      <c r="F141" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="10" t="s">
+    <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E142" s="15"/>
+      <c r="F142" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="10" t="s">
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="E143" s="15"/>
+      <c r="F143" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="10" t="s">
+    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="E144" s="15"/>
+      <c r="F144" s="9" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="145" spans="5:7" ht="18" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="E146" s="15"/>
+      <c r="F146" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="5:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="10" t="s">
+    <row r="147" spans="5:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="E147" s="15"/>
+      <c r="F147" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G147" s="5" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="A115:A129"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H72:H86"/>
-    <mergeCell ref="H98:H114"/>
-    <mergeCell ref="E130:E146"/>
-    <mergeCell ref="E98:E111"/>
-    <mergeCell ref="E72:E97"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="H115:H126"/>
+    <mergeCell ref="J116:J121"/>
+    <mergeCell ref="H116:H127"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E27:E42"/>
     <mergeCell ref="E15:E26"/>
@@ -3575,10 +3575,33 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H15:H25"/>
     <mergeCell ref="H27:H44"/>
-    <mergeCell ref="E115:E126"/>
+    <mergeCell ref="E116:E127"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="H45:H55"/>
     <mergeCell ref="H56:H71"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H72:H86"/>
+    <mergeCell ref="H98:H115"/>
+    <mergeCell ref="E131:E147"/>
+    <mergeCell ref="E98:E111"/>
+    <mergeCell ref="E72:E97"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E56:E69"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B117:B123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E6F80-6D6B-5142-AFA4-B70947DE6475}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8C7AF-AC46-734F-8C0D-219A4EEBA945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
@@ -1154,8 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767BDB32-4608-9A4E-99EC-4F706B849AED}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>

--- a/目錄（含歷史版本）.xlsx
+++ b/目錄（含歷史版本）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji-new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujunyin/Documents/GitHub/faguquanji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8C7AF-AC46-734F-8C0D-219A4EEBA945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8246BE-74FA-9E4D-9DEB-E3B4F653ACD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32900" windowHeight="19280" xr2:uid="{6CCBDEAB-FF05-BA49-B1A6-8CB0C251FADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="235">
   <si>
     <t>《法鼓全集光碟版》HTML版本</t>
   </si>
@@ -791,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,14 +823,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -838,6 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,8 +1156,8 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1170,15 +1171,16 @@
     <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="6"/>
       <c r="E1" s="18" t="s">
         <v>106</v>
@@ -1194,9 +1196,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="H2" s="4" t="s">
@@ -1207,7 +1209,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1216,7 +1218,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1235,14 +1237,14 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1257,14 +1259,14 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1279,14 +1281,14 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1301,14 +1303,14 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
@@ -1323,14 +1325,14 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1345,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1352,13 +1354,13 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="17" t="s">
         <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1371,18 +1373,18 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1393,18 +1395,18 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1413,44 +1415,44 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1459,13 +1461,13 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="17" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="17" t="s">
         <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1477,18 +1479,18 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1500,18 +1502,18 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="2" t="s">
         <v>109</v>
       </c>
@@ -1523,18 +1525,18 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1546,18 +1548,18 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1569,18 +1571,18 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="2" t="s">
         <v>194</v>
       </c>
@@ -1592,18 +1594,18 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="2" t="s">
         <v>114</v>
       </c>
@@ -1613,18 +1615,18 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1636,11 +1638,11 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E23" s="15"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="2" t="s">
         <v>195</v>
       </c>
@@ -1650,11 +1652,11 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E24" s="15"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1666,11 +1668,11 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E25" s="15"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="2" t="s">
         <v>196</v>
       </c>
@@ -1678,14 +1680,14 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E26" s="15"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="9" t="s">
         <v>114</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1694,7 +1696,7 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1714,14 +1716,14 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="9" t="s">
         <v>116</v>
       </c>
@@ -1737,14 +1739,14 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="9" t="s">
         <v>117</v>
       </c>
@@ -1760,14 +1762,14 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="9" t="s">
         <v>118</v>
       </c>
@@ -1783,14 +1785,14 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="9" t="s">
         <v>119</v>
       </c>
@@ -1806,14 +1808,14 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="9" t="s">
         <v>120</v>
       </c>
@@ -1829,14 +1831,14 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1852,14 +1854,14 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="9" t="s">
         <v>121</v>
       </c>
@@ -1875,14 +1877,14 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="9" t="s">
         <v>122</v>
       </c>
@@ -1898,14 +1900,14 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="9" t="s">
         <v>44</v>
       </c>
@@ -1921,14 +1923,14 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="9" t="s">
         <v>46</v>
       </c>
@@ -1944,14 +1946,14 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="9" t="s">
         <v>48</v>
       </c>
@@ -1967,7 +1969,7 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E39" s="15"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="10" t="s">
         <v>123</v>
       </c>
@@ -1983,7 +1985,7 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E40" s="15"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="9" t="s">
         <v>124</v>
       </c>
@@ -1999,7 +2001,7 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E41" s="15"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="9" t="s">
         <v>125</v>
       </c>
@@ -2015,7 +2017,7 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="E42" s="15"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="9" t="s">
         <v>126</v>
       </c>
@@ -2049,7 +2051,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2058,13 +2060,13 @@
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="17" t="s">
         <v>127</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -2075,18 +2077,18 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="2" t="s">
         <v>51</v>
       </c>
@@ -2097,18 +2099,18 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2119,18 +2121,18 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2141,18 +2143,18 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="2" t="s">
         <v>54</v>
       </c>
@@ -2163,18 +2165,18 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
@@ -2185,18 +2187,18 @@
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="2" t="s">
         <v>57</v>
       </c>
@@ -2207,18 +2209,18 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="15"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="2" t="s">
         <v>201</v>
       </c>
@@ -2227,7 +2229,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H53" s="15"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="2" t="s">
         <v>202</v>
       </c>
@@ -2236,16 +2238,18 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H54" s="15"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H55" s="15"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
@@ -2256,7 +2260,7 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2265,13 +2269,13 @@
       <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="17" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -2284,18 +2288,18 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="15"/>
+      <c r="H57" s="17"/>
       <c r="I57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2304,18 +2308,18 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2324,18 +2328,18 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2344,18 +2348,18 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="2" t="s">
         <v>63</v>
       </c>
@@ -2364,18 +2368,18 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="2" t="s">
         <v>64</v>
       </c>
@@ -2384,18 +2388,18 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="15"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2404,18 +2408,18 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H63" s="15"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2424,18 +2428,18 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2444,18 +2448,18 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="15"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2464,11 +2468,11 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E66" s="15"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="15"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2477,11 +2481,11 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E67" s="15"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H67" s="15"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="2" t="s">
         <v>130</v>
       </c>
@@ -2490,11 +2494,11 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E68" s="15"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="2" t="s">
         <v>131</v>
       </c>
@@ -2503,11 +2507,11 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E69" s="15"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H69" s="15"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="2" t="s">
         <v>132</v>
       </c>
@@ -2516,7 +2520,7 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H70" s="15"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2527,13 +2531,13 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H71" s="15"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2542,13 +2546,13 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="17" t="s">
         <v>133</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -2561,18 +2565,18 @@
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="2" t="s">
         <v>204</v>
       </c>
@@ -2583,16 +2587,16 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="2" t="s">
         <v>205</v>
       </c>
@@ -2601,18 +2605,18 @@
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="15"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="2" t="s">
         <v>206</v>
       </c>
@@ -2623,18 +2627,18 @@
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="17"/>
       <c r="I76" s="2" t="s">
         <v>80</v>
       </c>
@@ -2645,16 +2649,16 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="E77" s="17"/>
       <c r="F77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H77" s="15"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="2" t="s">
         <v>207</v>
       </c>
@@ -2665,16 +2669,16 @@
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H78" s="15"/>
+      <c r="H78" s="17"/>
       <c r="I78" s="2" t="s">
         <v>208</v>
       </c>
@@ -2685,18 +2689,18 @@
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H79" s="15"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="2" t="s">
         <v>209</v>
       </c>
@@ -2707,16 +2711,16 @@
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="E80" s="17"/>
       <c r="F80" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="2" t="s">
         <v>210</v>
       </c>
@@ -2725,18 +2729,18 @@
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="15"/>
+      <c r="E81" s="17"/>
       <c r="F81" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H81" s="15"/>
+      <c r="H81" s="17"/>
       <c r="I81" s="2" t="s">
         <v>211</v>
       </c>
@@ -2745,18 +2749,18 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="15"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="17"/>
       <c r="I82" s="2" t="s">
         <v>212</v>
       </c>
@@ -2765,11 +2769,11 @@
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E83" s="15"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H83" s="15"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="2" t="s">
         <v>213</v>
       </c>
@@ -2778,11 +2782,11 @@
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E84" s="15"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H84" s="15"/>
+      <c r="H84" s="17"/>
       <c r="I84" s="2" t="s">
         <v>214</v>
       </c>
@@ -2791,11 +2795,11 @@
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E85" s="15"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="15"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="2" t="s">
         <v>215</v>
       </c>
@@ -2804,83 +2808,83 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E86" s="15"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H86" s="15"/>
+      <c r="H86" s="17"/>
       <c r="I86" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E87" s="15"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
+      <c r="E89" s="17"/>
       <c r="F89" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
+      <c r="E90" s="17"/>
       <c r="F90" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E91" s="15"/>
+      <c r="E91" s="17"/>
       <c r="F91" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E92" s="15"/>
+      <c r="E92" s="17"/>
       <c r="F92" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E93" s="15"/>
+      <c r="E93" s="17"/>
       <c r="F93" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E94" s="15"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E95" s="15"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E96" s="15"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E97" s="15"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2889,30 +2893,30 @@
       <c r="C98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="17" t="s">
         <v>152</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="15"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="15"/>
+      <c r="H99" s="17"/>
       <c r="I99" s="2" t="s">
         <v>83</v>
       </c>
@@ -2923,18 +2927,18 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="15"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H100" s="15"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="2" t="s">
         <v>84</v>
       </c>
@@ -2945,18 +2949,18 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A101" s="15"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="15"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H101" s="15"/>
+      <c r="H101" s="17"/>
       <c r="I101" s="2" t="s">
         <v>85</v>
       </c>
@@ -2967,18 +2971,18 @@
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A102" s="15"/>
-      <c r="B102" s="14" t="s">
+      <c r="A102" s="17"/>
+      <c r="B102" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="15"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H102" s="15"/>
+      <c r="H102" s="17"/>
       <c r="I102" s="2" t="s">
         <v>86</v>
       </c>
@@ -2989,16 +2993,16 @@
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A103" s="15"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="15"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="15"/>
+      <c r="H103" s="17"/>
       <c r="I103" s="2" t="s">
         <v>87</v>
       </c>
@@ -3009,67 +3013,75 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A104" s="15"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="15"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H104" s="15"/>
+      <c r="H104" s="17"/>
       <c r="I104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J104" s="13"/>
+      <c r="J104" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E105" s="15"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H105" s="15"/>
+      <c r="H105" s="17"/>
       <c r="I105" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J105" s="13"/>
+      <c r="J105" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E106" s="15"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H106" s="15"/>
+      <c r="H106" s="17"/>
       <c r="I106" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J106" s="13"/>
+      <c r="J106" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H107" s="15"/>
+      <c r="H107" s="17"/>
       <c r="I107" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J107" s="13"/>
+      <c r="J107" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-      <c r="H108" s="15"/>
+      <c r="E108" s="17"/>
+      <c r="H108" s="17"/>
       <c r="I108" s="2" t="s">
         <v>173</v>
       </c>
@@ -3078,11 +3090,11 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H109" s="15"/>
+      <c r="H109" s="17"/>
       <c r="I109" s="2" t="s">
         <v>174</v>
       </c>
@@ -3091,11 +3103,11 @@
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E110" s="15"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H110" s="15"/>
+      <c r="H110" s="17"/>
       <c r="I110" s="2" t="s">
         <v>175</v>
       </c>
@@ -3104,11 +3116,11 @@
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="E111" s="15"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H111" s="15"/>
+      <c r="H111" s="17"/>
       <c r="I111" s="2" t="s">
         <v>218</v>
       </c>
@@ -3120,7 +3132,7 @@
       <c r="F112" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H112" s="15"/>
+      <c r="H112" s="17"/>
       <c r="I112" s="2" t="s">
         <v>219</v>
       </c>
@@ -3129,7 +3141,7 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H113" s="15"/>
+      <c r="H113" s="17"/>
       <c r="I113" s="2" t="s">
         <v>220</v>
       </c>
@@ -3141,7 +3153,7 @@
       <c r="A114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="9"/>
-      <c r="H114" s="15"/>
+      <c r="H114" s="17"/>
       <c r="I114" s="2" t="s">
         <v>221</v>
       </c>
@@ -3149,7 +3161,7 @@
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="H115" s="15"/>
+      <c r="H115" s="17"/>
       <c r="I115" s="2" t="s">
         <v>222</v>
       </c>
@@ -3158,7 +3170,7 @@
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3167,127 +3179,127 @@
       <c r="C116" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="17" t="s">
         <v>160</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H116" s="15" t="s">
+      <c r="H116" s="17" t="s">
         <v>223</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J116" s="17" t="s">
+      <c r="J116" s="16" t="s">
         <v>234</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A117" s="15"/>
-      <c r="B117" s="14" t="s">
+      <c r="A117" s="17"/>
+      <c r="B117" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="15"/>
+      <c r="E117" s="17"/>
       <c r="F117" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H117" s="15"/>
+      <c r="H117" s="17"/>
       <c r="I117" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J117" s="17"/>
+      <c r="J117" s="16"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A118" s="15"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="15"/>
+      <c r="E118" s="17"/>
       <c r="F118" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H118" s="15"/>
+      <c r="H118" s="17"/>
       <c r="I118" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J118" s="17"/>
+      <c r="J118" s="16"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A119" s="15"/>
-      <c r="B119" s="14"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E119" s="15"/>
+      <c r="E119" s="17"/>
       <c r="F119" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="17"/>
       <c r="I119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J119" s="17"/>
+      <c r="J119" s="16"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A120" s="15"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="15"/>
+      <c r="E120" s="17"/>
       <c r="F120" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H120" s="15"/>
+      <c r="H120" s="17"/>
       <c r="I120" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J120" s="17"/>
+      <c r="J120" s="16"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A121" s="15"/>
-      <c r="B121" s="14"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="15"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H121" s="15"/>
+      <c r="H121" s="17"/>
       <c r="I121" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J121" s="17"/>
+      <c r="J121" s="16"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A122" s="15"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E122" s="15"/>
+      <c r="E122" s="17"/>
       <c r="F122" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H122" s="15"/>
+      <c r="H122" s="17"/>
       <c r="I122" s="2" t="s">
         <v>230</v>
       </c>
@@ -3296,16 +3308,16 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A123" s="15"/>
-      <c r="B123" s="14"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E123" s="15"/>
+      <c r="E123" s="17"/>
       <c r="F123" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H123" s="15"/>
+      <c r="H123" s="17"/>
       <c r="I123" s="2" t="s">
         <v>231</v>
       </c>
@@ -3314,18 +3326,18 @@
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A124" s="15"/>
-      <c r="B124" s="14" t="s">
+      <c r="A124" s="17"/>
+      <c r="B124" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E124" s="15"/>
+      <c r="E124" s="17"/>
       <c r="F124" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H124" s="15"/>
+      <c r="H124" s="17"/>
       <c r="I124" s="2" t="s">
         <v>180</v>
       </c>
@@ -3334,16 +3346,16 @@
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A125" s="15"/>
-      <c r="B125" s="14"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E125" s="15"/>
+      <c r="E125" s="17"/>
       <c r="F125" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H125" s="15"/>
+      <c r="H125" s="17"/>
       <c r="I125" s="2" t="s">
         <v>154</v>
       </c>
@@ -3352,16 +3364,16 @@
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A126" s="15"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E126" s="15"/>
+      <c r="E126" s="17"/>
       <c r="F126" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H126" s="15"/>
+      <c r="H126" s="17"/>
       <c r="I126" s="2" t="s">
         <v>157</v>
       </c>
@@ -3370,24 +3382,24 @@
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A127" s="15"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E127" s="15"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H127" s="15"/>
+      <c r="H127" s="17"/>
       <c r="I127" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A128" s="15"/>
+      <c r="A128" s="17"/>
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3409,7 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="15"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="1" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +3419,7 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="15"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="1" t="s">
         <v>28</v>
       </c>
@@ -3417,7 +3429,7 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E131" s="15" t="s">
+      <c r="E131" s="17" t="s">
         <v>172</v>
       </c>
       <c r="F131" s="9" t="s">
@@ -3434,7 +3446,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E132" s="15"/>
+      <c r="E132" s="17"/>
       <c r="F132" s="9" t="s">
         <v>174</v>
       </c>
@@ -3443,7 +3455,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E133" s="15"/>
+      <c r="E133" s="17"/>
       <c r="F133" s="9" t="s">
         <v>175</v>
       </c>
@@ -3452,7 +3464,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E134" s="15"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="9" t="s">
         <v>176</v>
       </c>
@@ -3461,7 +3473,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E135" s="15"/>
+      <c r="E135" s="17"/>
       <c r="F135" s="9" t="s">
         <v>177</v>
       </c>
@@ -3470,7 +3482,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
+      <c r="E136" s="17"/>
       <c r="F136" s="9" t="s">
         <v>178</v>
       </c>
@@ -3479,7 +3491,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
+      <c r="E137" s="17"/>
       <c r="F137" s="9" t="s">
         <v>179</v>
       </c>
@@ -3488,7 +3500,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
+      <c r="E138" s="17"/>
       <c r="F138" s="9" t="s">
         <v>180</v>
       </c>
@@ -3497,7 +3509,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
+      <c r="E139" s="17"/>
       <c r="F139" s="9" t="s">
         <v>181</v>
       </c>
@@ -3506,7 +3518,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
+      <c r="E140" s="17"/>
       <c r="F140" s="9" t="s">
         <v>182</v>
       </c>
@@ -3515,7 +3527,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="9" t="s">
         <v>183</v>
       </c>
@@ -3524,37 +3536,37 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
+      <c r="E142" s="17"/>
       <c r="F142" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
+      <c r="E143" s="17"/>
       <c r="F143" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
+      <c r="E144" s="17"/>
       <c r="F144" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="145" spans="5:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
+      <c r="E145" s="17"/>
       <c r="F145" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
+      <c r="E146" s="17"/>
       <c r="F146" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="147" spans="5:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
+      <c r="E147" s="17"/>
       <c r="F147" s="9" t="s">
         <v>189</v>
       </c>
@@ -3564,6 +3576,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B117:B123"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H72:H86"/>
+    <mergeCell ref="H98:H115"/>
+    <mergeCell ref="E131:E147"/>
+    <mergeCell ref="E98:E111"/>
+    <mergeCell ref="E72:E97"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="E56:E69"/>
+    <mergeCell ref="E45:E52"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="J116:J121"/>
     <mergeCell ref="H116:H127"/>
@@ -3580,29 +3615,6 @@
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="H45:H55"/>
     <mergeCell ref="H56:H71"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H72:H86"/>
-    <mergeCell ref="H98:H115"/>
-    <mergeCell ref="E131:E147"/>
-    <mergeCell ref="E98:E111"/>
-    <mergeCell ref="E72:E97"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="E56:E69"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B117:B123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
